--- a/Data/metadaten_grafiken.xlsx
+++ b/Data/metadaten_grafiken.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\LENA_Project\20230618_LENA_Abstimmungen\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/20230618_LENA_Abstimmungen/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFC414F-B3DC-4C11-9B4B-EC8DAAA4A76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{1BFC414F-B3DC-4C11-9B4B-EC8DAAA4A76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{376ABA56-0ABA-49AE-A0B0-6E441C23AA7D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,9 +366,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -685,22 +688,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="168.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="168.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -746,7 +749,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -769,7 +772,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -792,7 +795,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -811,11 +814,11 @@
       <c r="F5" t="s">
         <v>53</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -838,7 +841,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -861,7 +864,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -884,7 +887,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -907,7 +910,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -930,7 +933,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -953,7 +956,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -976,7 +979,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1091,7 +1094,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>

--- a/Data/metadaten_grafiken.xlsx
+++ b/Data/metadaten_grafiken.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/20230618_LENA_Abstimmungen/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{1BFC414F-B3DC-4C11-9B4B-EC8DAAA4A76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{376ABA56-0ABA-49AE-A0B0-6E441C23AA7D}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{1BFC414F-B3DC-4C11-9B4B-EC8DAAA4A76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E9118CD-CC2F-41F8-906D-DF057131FD3F}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,6 +387,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,7 +693,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,7 +822,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -837,7 +841,7 @@
       <c r="F6" t="s">
         <v>54</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1117,7 +1121,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1136,7 +1140,7 @@
       <c r="F19" t="s">
         <v>67</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>88</v>
       </c>
     </row>
